--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.89432766666667</v>
+        <v>61.526261</v>
       </c>
       <c r="H2">
-        <v>86.68298300000001</v>
+        <v>184.578783</v>
       </c>
       <c r="I2">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="J2">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N2">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O2">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P2">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q2">
-        <v>19.54266888590745</v>
+        <v>101.333259656912</v>
       </c>
       <c r="R2">
-        <v>175.884019973167</v>
+        <v>911.9993369122079</v>
       </c>
       <c r="S2">
-        <v>0.1141498940814908</v>
+        <v>0.2006318346397307</v>
       </c>
       <c r="T2">
-        <v>0.1141498940814908</v>
+        <v>0.2006318346397307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.89432766666667</v>
+        <v>61.526261</v>
       </c>
       <c r="H3">
-        <v>86.68298300000001</v>
+        <v>184.578783</v>
       </c>
       <c r="I3">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="J3">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.173509</v>
       </c>
       <c r="O3">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P3">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q3">
-        <v>107.617010077483</v>
+        <v>229.154743673283</v>
       </c>
       <c r="R3">
-        <v>968.5530906973472</v>
+        <v>2062.392693059547</v>
       </c>
       <c r="S3">
-        <v>0.6285973719060427</v>
+        <v>0.4537082572417966</v>
       </c>
       <c r="T3">
-        <v>0.6285973719060427</v>
+        <v>0.4537082572417966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.89432766666667</v>
+        <v>61.526261</v>
       </c>
       <c r="H4">
-        <v>86.68298300000001</v>
+        <v>184.578783</v>
       </c>
       <c r="I4">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="J4">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N4">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O4">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P4">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q4">
-        <v>23.71619446840844</v>
+        <v>140.5476578766256</v>
       </c>
       <c r="R4">
-        <v>213.445750215676</v>
+        <v>1264.928920889631</v>
       </c>
       <c r="S4">
-        <v>0.138527705831268</v>
+        <v>0.2782732397001421</v>
       </c>
       <c r="T4">
-        <v>0.138527705831268</v>
+        <v>0.2782732397001421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.89432766666667</v>
+        <v>61.526261</v>
       </c>
       <c r="H5">
-        <v>86.68298300000001</v>
+        <v>184.578783</v>
       </c>
       <c r="I5">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="J5">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N5">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O5">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P5">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q5">
-        <v>9.099690612063334</v>
+        <v>18.07557462289967</v>
       </c>
       <c r="R5">
-        <v>81.89721550857</v>
+        <v>162.680171606097</v>
       </c>
       <c r="S5">
-        <v>0.05315183538162541</v>
+        <v>0.03578820725829035</v>
       </c>
       <c r="T5">
-        <v>0.05315183538162541</v>
+        <v>0.03578820725829036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.567964</v>
       </c>
       <c r="I6">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668077</v>
       </c>
       <c r="J6">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668078</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N6">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O6">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P6">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q6">
-        <v>0.1280474206928889</v>
+        <v>0.3118107214293334</v>
       </c>
       <c r="R6">
-        <v>1.152426786236</v>
+        <v>2.806296492864</v>
       </c>
       <c r="S6">
-        <v>0.0007479326183560138</v>
+        <v>0.000617360551831789</v>
       </c>
       <c r="T6">
-        <v>0.0007479326183560138</v>
+        <v>0.0006173605518317891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.567964</v>
       </c>
       <c r="I7">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668077</v>
       </c>
       <c r="J7">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668078</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.173509</v>
       </c>
       <c r="O7">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P7">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q7">
         <v>0.7051278739640001</v>
@@ -883,10 +883,10 @@
         <v>6.346150865676001</v>
       </c>
       <c r="S7">
-        <v>0.004118693951005859</v>
+        <v>0.001396097386859896</v>
       </c>
       <c r="T7">
-        <v>0.004118693951005859</v>
+        <v>0.001396097386859896</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.567964</v>
       </c>
       <c r="I8">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668077</v>
       </c>
       <c r="J8">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668078</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N8">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O8">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P8">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q8">
-        <v>0.1553931834008889</v>
+        <v>0.4324766295497777</v>
       </c>
       <c r="R8">
-        <v>1.398538650608</v>
+        <v>3.892289665948</v>
       </c>
       <c r="S8">
-        <v>0.000907660848666806</v>
+        <v>0.0008562695004498513</v>
       </c>
       <c r="T8">
-        <v>0.000907660848666806</v>
+        <v>0.0008562695004498514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.567964</v>
       </c>
       <c r="I9">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668077</v>
       </c>
       <c r="J9">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668078</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N9">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O9">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P9">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q9">
-        <v>0.05962296750666667</v>
+        <v>0.05562002034177778</v>
       </c>
       <c r="R9">
-        <v>0.53660670756</v>
+        <v>0.5005801830760001</v>
       </c>
       <c r="S9">
-        <v>0.0003482613078819576</v>
+        <v>0.0001101232385265408</v>
       </c>
       <c r="T9">
-        <v>0.0003482613078819576</v>
+        <v>0.0001101232385265409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4986926666666666</v>
+        <v>0.6472316666666668</v>
       </c>
       <c r="H10">
-        <v>1.496078</v>
+        <v>1.941695</v>
       </c>
       <c r="I10">
-        <v>0.01612744901571743</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="J10">
-        <v>0.01612744901571742</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N10">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O10">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P10">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q10">
-        <v>0.3372906188691111</v>
+        <v>1.065985377146667</v>
       </c>
       <c r="R10">
-        <v>3.035615569822</v>
+        <v>9.593868394320001</v>
       </c>
       <c r="S10">
-        <v>0.001970134613822053</v>
+        <v>0.002110566685017053</v>
       </c>
       <c r="T10">
-        <v>0.001970134613822052</v>
+        <v>0.002110566685017053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4986926666666666</v>
+        <v>0.6472316666666668</v>
       </c>
       <c r="H11">
-        <v>1.496078</v>
+        <v>1.941695</v>
       </c>
       <c r="I11">
-        <v>0.01612744901571743</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="J11">
-        <v>0.01612744901571742</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.173509</v>
       </c>
       <c r="O11">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P11">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q11">
-        <v>1.857382333078</v>
+        <v>2.410616284195001</v>
       </c>
       <c r="R11">
-        <v>16.716440997702</v>
+        <v>21.69554655775501</v>
       </c>
       <c r="S11">
-        <v>0.01084908094321637</v>
+        <v>0.004772829467323503</v>
       </c>
       <c r="T11">
-        <v>0.01084908094321637</v>
+        <v>0.004772829467323503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4986926666666666</v>
+        <v>0.6472316666666668</v>
       </c>
       <c r="H12">
-        <v>1.496078</v>
+        <v>1.941695</v>
       </c>
       <c r="I12">
-        <v>0.01612744901571743</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="J12">
-        <v>0.01612744901571742</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N12">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O12">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P12">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q12">
-        <v>0.409322286335111</v>
+        <v>1.478505167957222</v>
       </c>
       <c r="R12">
-        <v>3.683900577015999</v>
+        <v>13.306546511615</v>
       </c>
       <c r="S12">
-        <v>0.002390875877963634</v>
+        <v>0.002927323224140921</v>
       </c>
       <c r="T12">
-        <v>0.002390875877963634</v>
+        <v>0.002927323224140921</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4986926666666666</v>
+        <v>0.6472316666666668</v>
       </c>
       <c r="H13">
-        <v>1.496078</v>
+        <v>1.941695</v>
       </c>
       <c r="I13">
-        <v>0.01612744901571743</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="J13">
-        <v>0.01612744901571742</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N13">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O13">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P13">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q13">
-        <v>0.1570532815133333</v>
+        <v>0.1901478181672222</v>
       </c>
       <c r="R13">
-        <v>1.41347953362</v>
+        <v>1.711330363505</v>
       </c>
       <c r="S13">
-        <v>0.0009173575807153681</v>
+        <v>0.0003764776317350954</v>
       </c>
       <c r="T13">
-        <v>0.0009173575807153678</v>
+        <v>0.0003764776317350955</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.339639</v>
+        <v>1.171018333333333</v>
       </c>
       <c r="H14">
-        <v>4.018917</v>
+        <v>3.513055</v>
       </c>
       <c r="I14">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="J14">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N14">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O14">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P14">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q14">
-        <v>0.9060643911036668</v>
+        <v>1.928657826853333</v>
       </c>
       <c r="R14">
-        <v>8.154579519933</v>
+        <v>17.35792044168</v>
       </c>
       <c r="S14">
-        <v>0.005292376127299434</v>
+        <v>0.003818589863821344</v>
       </c>
       <c r="T14">
-        <v>0.005292376127299434</v>
+        <v>0.003818589863821344</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.339639</v>
+        <v>1.171018333333333</v>
       </c>
       <c r="H15">
-        <v>4.018917</v>
+        <v>3.513055</v>
       </c>
       <c r="I15">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="J15">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>11.173509</v>
       </c>
       <c r="O15">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P15">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q15">
-        <v>4.989489474417001</v>
+        <v>4.361461295555</v>
       </c>
       <c r="R15">
-        <v>44.905405269753</v>
+        <v>39.25315165999501</v>
       </c>
       <c r="S15">
-        <v>0.029143905489599</v>
+        <v>0.008635348200581537</v>
       </c>
       <c r="T15">
-        <v>0.029143905489599</v>
+        <v>0.008635348200581537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.339639</v>
+        <v>1.171018333333333</v>
       </c>
       <c r="H16">
-        <v>4.018917</v>
+        <v>3.513055</v>
       </c>
       <c r="I16">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="J16">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N16">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O16">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P16">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q16">
-        <v>1.099563187902667</v>
+        <v>2.675018462126111</v>
       </c>
       <c r="R16">
-        <v>9.896068691123999</v>
+        <v>24.075166159135</v>
       </c>
       <c r="S16">
-        <v>0.006422614135652002</v>
+        <v>0.005296324854925404</v>
       </c>
       <c r="T16">
-        <v>0.006422614135652002</v>
+        <v>0.005296324854925404</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.339639</v>
+        <v>1.171018333333333</v>
       </c>
       <c r="H17">
-        <v>4.018917</v>
+        <v>3.513055</v>
       </c>
       <c r="I17">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="J17">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N17">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O17">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P17">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q17">
-        <v>0.42189251027</v>
+        <v>0.3440291824161111</v>
       </c>
       <c r="R17">
-        <v>3.79703259243</v>
+        <v>3.096262641745</v>
       </c>
       <c r="S17">
-        <v>0.002464299305394415</v>
+        <v>0.0006811505548271668</v>
       </c>
       <c r="T17">
-        <v>0.002464299305394414</v>
+        <v>0.0006811505548271669</v>
       </c>
     </row>
   </sheetData>
